--- a/TestReport.xlsx
+++ b/TestReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 Project Repository\GuestRegistrationForm\GuestRegistrationForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C469966D-6819-488A-B71E-66D2AA44A515}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFCEAD0-699A-485B-A194-064FCC3B3535}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" activeTab="1" xr2:uid="{64E321EC-C49D-4FBD-BE57-6392A53A4A4F}"/>
   </bookViews>
@@ -842,15 +842,15 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="102.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
@@ -914,7 +914,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -928,7 +928,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>

--- a/TestReport.xlsx
+++ b/TestReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 Project Repository\GuestRegistrationForm\GuestRegistrationForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guest123\GuestRegistrationForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFCEAD0-699A-485B-A194-064FCC3B3535}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EFE2E0-C8DA-4009-B687-27F36B84647F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8490" activeTab="1" xr2:uid="{64E321EC-C49D-4FBD-BE57-6392A53A4A4F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="1" xr2:uid="{64E321EC-C49D-4FBD-BE57-6392A53A4A4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t>Slno</t>
   </si>
@@ -90,6 +90,36 @@
   </si>
   <si>
     <t>Developing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if we scan passport after an id details will come of the previously scanned id </t>
+  </si>
+  <si>
+    <t>instead of passport id details is come</t>
+  </si>
+  <si>
+    <t>if we try to generate card without scanning code error is going to code</t>
+  </si>
+  <si>
+    <t>with out capturing photo document is generated</t>
+  </si>
+  <si>
+    <t>while genararting card without taking photo all data is cleared. Need to show take picture warning message</t>
+  </si>
+  <si>
+    <t>if we try to generate documents without scanning code error is going to code</t>
+  </si>
+  <si>
+    <t>IF genarate two card same time it goimg to code</t>
+  </si>
+  <si>
+    <t>after printing card if we try to genarate document it is generating document with only scanned image,it should not generate</t>
+  </si>
+  <si>
+    <t>when memory is full temp file is scanned it makes error for future scan and going to code</t>
+  </si>
+  <si>
+    <t>viistors id card is not generating</t>
   </si>
 </sst>
 </file>
@@ -172,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -198,47 +228,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -270,42 +268,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFB7B7"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -631,14 +594,14 @@
       <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="108.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="108.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -649,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -660,7 +623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -671,7 +634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -682,7 +645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -693,7 +656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -704,7 +667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -715,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -726,7 +689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -737,7 +700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -748,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -759,7 +722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -770,63 +733,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -839,21 +802,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831F0C4D-FEA4-4DE1-9A91-65033A6E4ABC}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="113" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -864,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -878,7 +841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -886,13 +849,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -900,13 +863,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -914,13 +877,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -934,7 +897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -945,7 +908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -956,7 +919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -967,7 +930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -978,7 +941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -989,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1000,9 +963,124 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12" xr:uid="{F28019C9-5F53-425F-B54F-778005F15130}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23" xr:uid="{F28019C9-5F53-425F-B54F-778005F15130}">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -1012,13 +1090,35 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{19E304D0-7C1B-4CB1-9908-72F183621D02}">
-            <xm:f>NOT(ISERROR(SEARCH($J$2,C1)))</xm:f>
-            <xm:f>$J$2</xm:f>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{35CBF07E-94A1-42FB-B159-379DF3636D19}">
+            <xm:f>NOT(ISERROR(SEARCH($J$6,C1)))</xm:f>
+            <xm:f>$J$6</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFFFB7B7"/>
+                  <bgColor theme="6" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{C73C7781-FF8A-459E-82FC-C788F3FFDDAD}">
+            <xm:f>NOT(ISERROR(SEARCH($J$5,C1)))</xm:f>
+            <xm:f>$J$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{F43D0828-AF80-4F02-B212-452B8FC978C5}">
+            <xm:f>NOT(ISERROR(SEARCH($J$4,C1)))</xm:f>
+            <xm:f>$J$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="8" tint="0.59996337778862885"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -1034,35 +1134,13 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{F43D0828-AF80-4F02-B212-452B8FC978C5}">
-            <xm:f>NOT(ISERROR(SEARCH($J$4,C1)))</xm:f>
-            <xm:f>$J$4</xm:f>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{19E304D0-7C1B-4CB1-9908-72F183621D02}">
+            <xm:f>NOT(ISERROR(SEARCH($J$2,C1)))</xm:f>
+            <xm:f>$J$2</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
-                  <bgColor theme="8" tint="0.59996337778862885"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{C73C7781-FF8A-459E-82FC-C788F3FFDDAD}">
-            <xm:f>NOT(ISERROR(SEARCH($J$5,C1)))</xm:f>
-            <xm:f>$J$5</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="9" tint="0.59996337778862885"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{35CBF07E-94A1-42FB-B159-379DF3636D19}">
-            <xm:f>NOT(ISERROR(SEARCH($J$6,C1)))</xm:f>
-            <xm:f>$J$6</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="6" tint="0.59996337778862885"/>
+                  <bgColor rgb="FFFFB7B7"/>
                 </patternFill>
               </fill>
             </x14:dxf>

--- a/TestReport.xlsx
+++ b/TestReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guest123\GuestRegistrationForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EFE2E0-C8DA-4009-B687-27F36B84647F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851AA823-793B-4F33-81D3-00715859140C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="1" xr2:uid="{64E321EC-C49D-4FBD-BE57-6392A53A4A4F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>Slno</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>viistors id card is not generating</t>
+  </si>
+  <si>
+    <t>instead of captured image default image is generated on id</t>
+  </si>
+  <si>
+    <t>After the fisrt scan , second scan not generate data on textbox,but it can genarated via document</t>
   </si>
 </sst>
 </file>
@@ -802,10 +808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831F0C4D-FEA4-4DE1-9A91-65033A6E4ABC}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
@@ -905,7 +911,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -916,7 +922,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -927,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -971,7 +977,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -982,7 +988,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -993,7 +999,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1026,7 +1032,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1037,7 +1043,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1070,17 +1076,34 @@
         <v>29</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="C23" s="9" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C23" xr:uid="{F28019C9-5F53-425F-B54F-778005F15130}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C24" xr:uid="{F28019C9-5F53-425F-B54F-778005F15130}">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/TestReport.xlsx
+++ b/TestReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guest123\GuestRegistrationForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851AA823-793B-4F33-81D3-00715859140C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BED4F44-2EBB-4E72-BD7B-2027B85A4EBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="1" xr2:uid="{64E321EC-C49D-4FBD-BE57-6392A53A4A4F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>Slno</t>
   </si>
@@ -122,10 +122,22 @@
     <t>viistors id card is not generating</t>
   </si>
   <si>
-    <t>instead of captured image default image is generated on id</t>
-  </si>
-  <si>
     <t>After the fisrt scan , second scan not generate data on textbox,but it can genarated via document</t>
+  </si>
+  <si>
+    <t>if first scan cause error second scan will not generate data on textbox we need stop scanning</t>
+  </si>
+  <si>
+    <t>image crop error goes to code</t>
+  </si>
+  <si>
+    <t>document is genrated with blank data</t>
+  </si>
+  <si>
+    <t>default image always printing on card</t>
+  </si>
+  <si>
+    <t>name is printed in reverse order while scannimg passport</t>
   </si>
 </sst>
 </file>
@@ -808,10 +820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831F0C4D-FEA4-4DE1-9A91-65033A6E4ABC}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
@@ -937,15 +949,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -1010,7 +1016,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1084,7 +1090,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>15</v>
@@ -1095,15 +1101,59 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C24" xr:uid="{F28019C9-5F53-425F-B54F-778005F15130}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C28" xr:uid="{F28019C9-5F53-425F-B54F-778005F15130}">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
